--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2549675.547143703</v>
+        <v>-2552289.825760156</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>5.130307059916079</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>12.78578371037469</v>
       </c>
       <c r="I2" t="n">
         <v>52.86845664851259</v>
@@ -716,16 +716,16 @@
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.21683571160321</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>43.5510016646539</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>22.86125478512848</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>36.32707961669607</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.6478590483369</v>
+        <v>275.503831440481</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>125.9227012499653</v>
       </c>
       <c r="G8" t="n">
-        <v>46.83925499574731</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>42.52535620972621</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.8409498966701</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>55.52079624060427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>176.7621441121405</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>160.3783204776929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>2.268486125805833</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053456</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892447</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856587</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>64.35711883683429</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428202</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>237.1280940168091</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,13 +2716,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1613.884410748446</v>
+        <v>1706.792040174695</v>
       </c>
       <c r="C2" t="n">
-        <v>1244.921893808034</v>
+        <v>1337.829523234283</v>
       </c>
       <c r="D2" t="n">
-        <v>1239.739765464685</v>
+        <v>1337.829523234283</v>
       </c>
       <c r="E2" t="n">
-        <v>1239.739765464685</v>
+        <v>952.0412706360389</v>
       </c>
       <c r="F2" t="n">
-        <v>828.753860675077</v>
+        <v>541.0553658464314</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443556</v>
+        <v>125.6870702157097</v>
       </c>
       <c r="H2" t="n">
         <v>112.7721371749273</v>
@@ -4334,22 +4334,22 @@
         <v>520.574560644744</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185038</v>
+        <v>925.8512030185029</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552359</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.50985287725</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2357.627637384226</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215712</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589159</v>
@@ -4361,19 +4361,19 @@
         <v>2644.177727152601</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788379</v>
+        <v>2390.62358278838</v>
       </c>
       <c r="V2" t="n">
-        <v>2390.623582788379</v>
+        <v>2059.560695444809</v>
       </c>
       <c r="W2" t="n">
-        <v>2390.623582788379</v>
+        <v>1706.792040174695</v>
       </c>
       <c r="X2" t="n">
-        <v>2390.623582788379</v>
+        <v>1706.792040174695</v>
       </c>
       <c r="Y2" t="n">
-        <v>2000.484250812568</v>
+        <v>1706.792040174695</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>59.36965571178318</v>
       </c>
       <c r="J3" t="n">
-        <v>263.2196007019</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>476.4318839038951</v>
+        <v>591.3495759479367</v>
       </c>
       <c r="L3" t="n">
-        <v>809.4446518541376</v>
+        <v>924.3623438981792</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.036801468465</v>
+        <v>1332.329405070861</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.210181722257</v>
+        <v>1765.502785324652</v>
       </c>
       <c r="O3" t="n">
-        <v>2104.259402166787</v>
+        <v>2139.552005769182</v>
       </c>
       <c r="P3" t="n">
-        <v>2385.133812092034</v>
+        <v>2420.426415694429</v>
       </c>
       <c r="Q3" t="n">
-        <v>2522.971720424101</v>
+        <v>2558.264324026496</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1985.594587626305</v>
+        <v>1764.802008482774</v>
       </c>
       <c r="C4" t="n">
-        <v>1816.658404698398</v>
+        <v>1595.865825554867</v>
       </c>
       <c r="D4" t="n">
-        <v>1666.541765286062</v>
+        <v>1595.865825554867</v>
       </c>
       <c r="E4" t="n">
-        <v>1653.191426183432</v>
+        <v>1595.865825554867</v>
       </c>
       <c r="F4" t="n">
-        <v>1653.191426183432</v>
+        <v>1595.865825554867</v>
       </c>
       <c r="G4" t="n">
-        <v>1485.355883462588</v>
+        <v>1428.030282834023</v>
       </c>
       <c r="H4" t="n">
-        <v>1337.958818848988</v>
+        <v>1280.633218220423</v>
       </c>
       <c r="I4" t="n">
         <v>1236.642307448045</v>
@@ -4501,7 +4501,7 @@
         <v>2403.941511830842</v>
       </c>
       <c r="O4" t="n">
-        <v>2684.886979680606</v>
+        <v>2684.886979680607</v>
       </c>
       <c r="P4" t="n">
         <v>2901.763680026543</v>
@@ -4531,7 +4531,7 @@
         <v>2167.243052456544</v>
       </c>
       <c r="Y4" t="n">
-        <v>2167.243052456544</v>
+        <v>1946.450473313014</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1624.638712032432</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1255.67619509202</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>897.4104964852695</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>511.6222438870253</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>100.6363390974177</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>89.60429298281827</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>89.60429298281827</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>910.6496566501144</v>
+        <v>1427.241234233291</v>
       </c>
       <c r="X7" t="n">
-        <v>682.660105752097</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.407367302545</v>
+        <v>1405.526882613612</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.444850362133</v>
+        <v>1036.5643656732</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.179151755382</v>
+        <v>1036.5643656732</v>
       </c>
       <c r="E8" t="n">
-        <v>864.3908991571382</v>
+        <v>650.7761130749559</v>
       </c>
       <c r="F8" t="n">
-        <v>453.4049943675306</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1792.126722677734</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1381.056685980024</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1126.372197774137</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1126.372197774137</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1126.372197774137</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925221</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>296.788222910129</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>982.2858920990371</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.928827395874</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679671</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261137</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2314.910189088386</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2095.308724111328</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270446</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6622,34 +6622,34 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,13 +6838,13 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,10 +7825,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525721</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.42938226428953</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>9.872575263447089</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>349.5527345607669</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>284.8215098803594</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.217126934966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>56.75234462227968</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.74504007796122</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514776</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194233</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.3469868924065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="S22" t="n">
-        <v>116.6691671648103</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194187</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>15.00954930701886</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1403306.875835483</v>
+        <v>1403306.875835482</v>
       </c>
     </row>
     <row r="10">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071832</v>
+        <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
@@ -26344,16 +26344,16 @@
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.4934397304</v>
+        <v>95186.49343973072</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359958</v>
+        <v>22978.01038359967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16555.52139697202</v>
+        <v>16555.52139697201</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>19767.83547989928</v>
@@ -26445,19 +26445,19 @@
         <v>19767.83547989931</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989934</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329862.545008702</v>
+        <v>-1330292.103875291</v>
       </c>
       <c r="C6" t="n">
-        <v>-273558.4007426737</v>
+        <v>-273558.400742674</v>
       </c>
       <c r="D6" t="n">
         <v>-178371.9073029433</v>
       </c>
       <c r="E6" t="n">
-        <v>-418133.3028558181</v>
+        <v>-418168.0407812533</v>
       </c>
       <c r="F6" t="n">
-        <v>-92720.84104846278</v>
+        <v>-92755.57897389849</v>
       </c>
       <c r="G6" t="n">
-        <v>-92720.84104846278</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="H6" t="n">
-        <v>-92720.84104846281</v>
+        <v>-92755.57897389847</v>
       </c>
       <c r="I6" t="n">
-        <v>-92720.84104846277</v>
+        <v>-92755.57897389849</v>
       </c>
       <c r="J6" t="n">
-        <v>-316005.0525690118</v>
+        <v>-316005.0525690119</v>
       </c>
       <c r="K6" t="n">
-        <v>-125383.9174708072</v>
+        <v>-125383.9174708073</v>
       </c>
       <c r="L6" t="n">
         <v>-102405.9070872076</v>
       </c>
       <c r="M6" t="n">
-        <v>-187460.9350227194</v>
+        <v>-187460.9350227193</v>
       </c>
       <c r="N6" t="n">
         <v>-102405.9070872076</v>
       </c>
       <c r="O6" t="n">
-        <v>-121833.6250808393</v>
+        <v>-121833.6250808394</v>
       </c>
       <c r="P6" t="n">
-        <v>-102405.9070872076</v>
+        <v>-102405.9070872075</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500289</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500289</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500289</v>
+        <v>89.28075900500323</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.71567498779744</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>333.4040210617729</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8751392882541</v>
+        <v>11.01916689611005</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>280.9533444917461</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0824706577062</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>243.6864819958867</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.68204843992089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435523</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>457.53545478085</v>
       </c>
       <c r="L3" t="n">
         <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>492.5173228427554</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
         <v>437.5488689432241</v>
@@ -34799,7 +34799,7 @@
         <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787373</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37950,10 +37950,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
